--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Lamc2-Itga6.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Lamc2-Itga6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,19 +85,19 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Lamc2</t>
+  </si>
+  <si>
+    <t>Itga6</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Lamc2</t>
-  </si>
-  <si>
-    <t>Itga6</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.376083</v>
+        <v>0.6497310000000001</v>
       </c>
       <c r="H2">
-        <v>2.752166</v>
+        <v>1.299462</v>
       </c>
       <c r="I2">
-        <v>0.1951451957186365</v>
+        <v>0.1368539823075643</v>
       </c>
       <c r="J2">
-        <v>0.1551808209878422</v>
+        <v>0.1044662622791644</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>213.535248</v>
+        <v>228.691925</v>
       </c>
       <c r="N2">
-        <v>427.070496</v>
+        <v>457.38385</v>
       </c>
       <c r="O2">
-        <v>0.4263820193694889</v>
+        <v>0.5727940074410816</v>
       </c>
       <c r="P2">
-        <v>0.3329095091851672</v>
+        <v>0.4759340026548169</v>
       </c>
       <c r="Q2">
-        <v>293.842224673584</v>
+        <v>148.588233122175</v>
       </c>
       <c r="R2">
-        <v>1175.368898694336</v>
+        <v>594.3529324887</v>
       </c>
       <c r="S2">
-        <v>0.08320640262076637</v>
+        <v>0.07838914096022062</v>
       </c>
       <c r="T2">
-        <v>0.05166117095001385</v>
+        <v>0.04971904634891062</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.376083</v>
+        <v>0.6497310000000001</v>
       </c>
       <c r="H3">
-        <v>2.752166</v>
+        <v>1.299462</v>
       </c>
       <c r="I3">
-        <v>0.1951451957186365</v>
+        <v>0.1368539823075643</v>
       </c>
       <c r="J3">
-        <v>0.1551808209878422</v>
+        <v>0.1044662622791644</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>1.424846</v>
       </c>
       <c r="O3">
-        <v>0.0009483660121076572</v>
+        <v>0.00118958179266189</v>
       </c>
       <c r="P3">
-        <v>0.001110694339616588</v>
+        <v>0.001482633590903363</v>
       </c>
       <c r="Q3">
-        <v>0.6535687860726667</v>
+        <v>0.308588872142</v>
       </c>
       <c r="R3">
-        <v>3.921412716436</v>
+        <v>1.851533232852</v>
       </c>
       <c r="S3">
-        <v>0.0001850690710456515</v>
+        <v>0.0001627990056063509</v>
       </c>
       <c r="T3">
-        <v>0.0001723584594882514</v>
+        <v>0.0001548851895712101</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,14 +652,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
       <c r="E4">
         <v>2</v>
       </c>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.376083</v>
+        <v>0.6497310000000001</v>
       </c>
       <c r="H4">
-        <v>2.752166</v>
+        <v>1.299462</v>
       </c>
       <c r="I4">
-        <v>0.1951451957186365</v>
+        <v>0.1368539823075643</v>
       </c>
       <c r="J4">
-        <v>0.1551808209878422</v>
+        <v>0.1044662622791644</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>76.27410400000001</v>
+        <v>38.30460633333333</v>
       </c>
       <c r="N4">
-        <v>228.822312</v>
+        <v>114.913819</v>
       </c>
       <c r="O4">
-        <v>0.1523022863612588</v>
+        <v>0.09593976247794071</v>
       </c>
       <c r="P4">
-        <v>0.1783713094021254</v>
+        <v>0.1195743877642841</v>
       </c>
       <c r="Q4">
-        <v>104.959497854632</v>
+        <v>24.887690177563</v>
       </c>
       <c r="R4">
-        <v>629.7569871277921</v>
+        <v>149.326141065378</v>
       </c>
       <c r="S4">
-        <v>0.02972105948036366</v>
+        <v>0.01312973855674802</v>
       </c>
       <c r="T4">
-        <v>0.02767980623369825</v>
+        <v>0.01249148935405421</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.376083</v>
+        <v>0.6497310000000001</v>
       </c>
       <c r="H5">
-        <v>2.752166</v>
+        <v>1.299462</v>
       </c>
       <c r="I5">
-        <v>0.1951451957186365</v>
+        <v>0.1368539823075643</v>
       </c>
       <c r="J5">
-        <v>0.1551808209878422</v>
+        <v>0.1044662622791644</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.0442065</v>
+        <v>8.054906000000001</v>
       </c>
       <c r="N5">
-        <v>12.088413</v>
+        <v>16.109812</v>
       </c>
       <c r="O5">
-        <v>0.01206892537458823</v>
+        <v>0.02017474769737153</v>
       </c>
       <c r="P5">
-        <v>0.009423146005987718</v>
+        <v>0.01676317890799293</v>
       </c>
       <c r="Q5">
-        <v>8.3173298131395</v>
+        <v>5.233522130286001</v>
       </c>
       <c r="R5">
-        <v>33.269319252558</v>
+        <v>20.93408852114401</v>
       </c>
       <c r="S5">
-        <v>0.002355192804337638</v>
+        <v>0.002760994564435657</v>
       </c>
       <c r="T5">
-        <v>0.001462291533497481</v>
+        <v>0.001751186644434946</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,14 +776,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>26</v>
       </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
         <v>2</v>
       </c>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.376083</v>
+        <v>0.6497310000000001</v>
       </c>
       <c r="H6">
-        <v>2.752166</v>
+        <v>1.299462</v>
       </c>
       <c r="I6">
-        <v>0.1951451957186365</v>
+        <v>0.1368539823075643</v>
       </c>
       <c r="J6">
-        <v>0.1551808209878422</v>
+        <v>0.1044662622791644</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>146.059807</v>
+        <v>21.28819633333333</v>
       </c>
       <c r="N6">
-        <v>438.179421</v>
+        <v>63.864589</v>
       </c>
       <c r="O6">
-        <v>0.291648690512106</v>
+        <v>0.05331955332031307</v>
       </c>
       <c r="P6">
-        <v>0.3415691258151223</v>
+        <v>0.06645475014186616</v>
       </c>
       <c r="Q6">
-        <v>200.990417395981</v>
+        <v>13.831601091853</v>
       </c>
       <c r="R6">
-        <v>1205.942504375886</v>
+        <v>82.989606551118</v>
       </c>
       <c r="S6">
-        <v>0.05691384079106897</v>
+        <v>0.007296993206745355</v>
       </c>
       <c r="T6">
-        <v>0.05300497736809027</v>
+        <v>0.006942279358016527</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.376083</v>
+        <v>0.6497310000000001</v>
       </c>
       <c r="H7">
-        <v>2.752166</v>
+        <v>1.299462</v>
       </c>
       <c r="I7">
-        <v>0.1951451957186365</v>
+        <v>0.1368539823075643</v>
       </c>
       <c r="J7">
-        <v>0.1551808209878422</v>
+        <v>0.1044662622791644</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>58.41903299999999</v>
+        <v>102.442257</v>
       </c>
       <c r="N7">
-        <v>175.257099</v>
+        <v>307.326771</v>
       </c>
       <c r="O7">
-        <v>0.1166497123704505</v>
+        <v>0.2565823472706314</v>
       </c>
       <c r="P7">
-        <v>0.1366162152519809</v>
+        <v>0.3197910469401364</v>
       </c>
       <c r="Q7">
-        <v>80.38943818773899</v>
+        <v>66.55991008286701</v>
       </c>
       <c r="R7">
-        <v>482.3366291264339</v>
+        <v>399.3594604972021</v>
       </c>
       <c r="S7">
-        <v>0.0227636309510542</v>
+        <v>0.03511431601380831</v>
       </c>
       <c r="T7">
-        <v>0.02120021644305417</v>
+        <v>0.03340737538417686</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>8.831444000000001</v>
       </c>
       <c r="I8">
-        <v>0.4174684879371806</v>
+        <v>0.6200608564294273</v>
       </c>
       <c r="J8">
-        <v>0.4979607808642915</v>
+        <v>0.7099768559663557</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>213.535248</v>
+        <v>228.691925</v>
       </c>
       <c r="N8">
-        <v>427.070496</v>
+        <v>457.38385</v>
       </c>
       <c r="O8">
-        <v>0.4263820193694889</v>
+        <v>0.5727940074410816</v>
       </c>
       <c r="P8">
-        <v>0.3329095091851672</v>
+        <v>0.4759340026548169</v>
       </c>
       <c r="Q8">
-        <v>628.6081949127041</v>
+        <v>673.2266429632334</v>
       </c>
       <c r="R8">
-        <v>3771.649169476225</v>
+        <v>4039.3598577794</v>
       </c>
       <c r="S8">
-        <v>0.1780010569097822</v>
+        <v>0.3551671428115608</v>
       </c>
       <c r="T8">
-        <v>0.1657758791509939</v>
+        <v>0.3379021268523502</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>8.831444000000001</v>
       </c>
       <c r="I9">
-        <v>0.4174684879371806</v>
+        <v>0.6200608564294273</v>
       </c>
       <c r="J9">
-        <v>0.4979607808642915</v>
+        <v>0.7099768559663557</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>1.424846</v>
       </c>
       <c r="O9">
-        <v>0.0009483660121076572</v>
+        <v>0.00118958179266189</v>
       </c>
       <c r="P9">
-        <v>0.001110694339616588</v>
+        <v>0.001482633590903363</v>
       </c>
       <c r="Q9">
         <v>1.398160850847111</v>
@@ -1013,10 +1013,10 @@
         <v>12.583447657624</v>
       </c>
       <c r="S9">
-        <v>0.0003959129250855976</v>
+        <v>0.0007376131051507848</v>
       </c>
       <c r="T9">
-        <v>0.0005530822206570246</v>
+        <v>0.001052635535419678</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>27</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>8.831444000000001</v>
       </c>
       <c r="I10">
-        <v>0.4174684879371806</v>
+        <v>0.6200608564294273</v>
       </c>
       <c r="J10">
-        <v>0.4979607808642915</v>
+        <v>0.7099768559663557</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>76.27410400000001</v>
+        <v>38.30460633333333</v>
       </c>
       <c r="N10">
-        <v>228.822312</v>
+        <v>114.913819</v>
       </c>
       <c r="O10">
-        <v>0.1523022863612588</v>
+        <v>0.09593976247794071</v>
       </c>
       <c r="P10">
-        <v>0.1783713094021254</v>
+        <v>0.1195743877642841</v>
       </c>
       <c r="Q10">
-        <v>224.5368260420587</v>
+        <v>112.7616619249596</v>
       </c>
       <c r="R10">
-        <v>2020.831434378528</v>
+        <v>1014.854957324636</v>
       </c>
       <c r="S10">
-        <v>0.06358140519661019</v>
+        <v>0.05948849128770776</v>
       </c>
       <c r="T10">
-        <v>0.08882191651366854</v>
+        <v>0.0848950478789883</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
@@ -1107,10 +1107,10 @@
         <v>8.831444000000001</v>
       </c>
       <c r="I11">
-        <v>0.4174684879371806</v>
+        <v>0.6200608564294273</v>
       </c>
       <c r="J11">
-        <v>0.4979607808642915</v>
+        <v>0.7099768559663557</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.0442065</v>
+        <v>8.054906000000001</v>
       </c>
       <c r="N11">
-        <v>12.088413</v>
+        <v>16.109812</v>
       </c>
       <c r="O11">
-        <v>0.01206892537458823</v>
+        <v>0.02017474769737153</v>
       </c>
       <c r="P11">
-        <v>0.009423146005987718</v>
+        <v>0.01676317890799293</v>
       </c>
       <c r="Q11">
-        <v>17.793023743062</v>
+        <v>23.71215042142134</v>
       </c>
       <c r="R11">
-        <v>106.758142458372</v>
+        <v>142.272902528528</v>
       </c>
       <c r="S11">
-        <v>0.005038396027156019</v>
+        <v>0.01250957133547981</v>
       </c>
       <c r="T11">
-        <v>0.004692357143339873</v>
+        <v>0.01190146905709835</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
         <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>8.831444000000001</v>
       </c>
       <c r="I12">
-        <v>0.4174684879371806</v>
+        <v>0.6200608564294273</v>
       </c>
       <c r="J12">
-        <v>0.4979607808642915</v>
+        <v>0.7099768559663557</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>146.059807</v>
+        <v>21.28819633333333</v>
       </c>
       <c r="N12">
-        <v>438.179421</v>
+        <v>63.864589</v>
       </c>
       <c r="O12">
-        <v>0.291648690512106</v>
+        <v>0.05331955332031307</v>
       </c>
       <c r="P12">
-        <v>0.3415691258151223</v>
+        <v>0.06645475014186616</v>
       </c>
       <c r="Q12">
-        <v>429.9730020571027</v>
+        <v>62.66850459294622</v>
       </c>
       <c r="R12">
-        <v>3869.757018513924</v>
+        <v>564.0165413365161</v>
       </c>
       <c r="S12">
-        <v>0.1217541378369476</v>
+        <v>0.03306136789622784</v>
       </c>
       <c r="T12">
-        <v>0.1700880286100317</v>
+        <v>0.04718133456975187</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,10 +1231,10 @@
         <v>8.831444000000001</v>
       </c>
       <c r="I13">
-        <v>0.4174684879371806</v>
+        <v>0.6200608564294273</v>
       </c>
       <c r="J13">
-        <v>0.4979607808642915</v>
+        <v>0.7099768559663557</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>58.41903299999999</v>
+        <v>102.442257</v>
       </c>
       <c r="N13">
-        <v>175.257099</v>
+        <v>307.326771</v>
       </c>
       <c r="O13">
-        <v>0.1166497123704505</v>
+        <v>0.2565823472706314</v>
       </c>
       <c r="P13">
-        <v>0.1366162152519809</v>
+        <v>0.3197910469401364</v>
       </c>
       <c r="Q13">
-        <v>171.974806157884</v>
+        <v>301.571018643036</v>
       </c>
       <c r="R13">
-        <v>1547.773255420956</v>
+        <v>2714.139167787324</v>
       </c>
       <c r="S13">
-        <v>0.04869757904159898</v>
+        <v>0.1590966699933004</v>
       </c>
       <c r="T13">
-        <v>0.06802951722560052</v>
+        <v>0.2270442420727473</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.043453</v>
+        <v>1.1540765</v>
       </c>
       <c r="H14">
-        <v>4.086906</v>
+        <v>2.308153</v>
       </c>
       <c r="I14">
-        <v>0.2897863251176236</v>
+        <v>0.2430851612630084</v>
       </c>
       <c r="J14">
-        <v>0.2304401073118912</v>
+        <v>0.18555688175448</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>213.535248</v>
+        <v>228.691925</v>
       </c>
       <c r="N14">
-        <v>427.070496</v>
+        <v>457.38385</v>
       </c>
       <c r="O14">
-        <v>0.4263820193694889</v>
+        <v>0.5727940074410816</v>
       </c>
       <c r="P14">
-        <v>0.3329095091851672</v>
+        <v>0.4759340026548169</v>
       </c>
       <c r="Q14">
-        <v>436.3492431313441</v>
+        <v>263.9279763822625</v>
       </c>
       <c r="R14">
-        <v>1745.396972525376</v>
+        <v>1055.71190552905</v>
       </c>
       <c r="S14">
-        <v>0.1235596784893156</v>
+        <v>0.1392377236693001</v>
       </c>
       <c r="T14">
-        <v>0.07671570302177896</v>
+        <v>0.08831282945355622</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.043453</v>
+        <v>1.1540765</v>
       </c>
       <c r="H15">
-        <v>4.086906</v>
+        <v>2.308153</v>
       </c>
       <c r="I15">
-        <v>0.2897863251176236</v>
+        <v>0.2430851612630084</v>
       </c>
       <c r="J15">
-        <v>0.2304401073118912</v>
+        <v>0.18555688175448</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>1.424846</v>
       </c>
       <c r="O15">
-        <v>0.0009483660121076572</v>
+        <v>0.00118958179266189</v>
       </c>
       <c r="P15">
-        <v>0.001110694339616588</v>
+        <v>0.001482633590903363</v>
       </c>
       <c r="Q15">
-        <v>0.970535277746</v>
+        <v>0.5481270949063334</v>
       </c>
       <c r="R15">
-        <v>5.823211666476</v>
+        <v>3.288762569438</v>
       </c>
       <c r="S15">
-        <v>0.0002748235015151337</v>
+        <v>0.0002891696819047541</v>
       </c>
       <c r="T15">
-        <v>0.0002559485228119567</v>
+        <v>0.0002751128659124754</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,14 +1396,14 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>27</v>
-      </c>
       <c r="E16">
         <v>2</v>
       </c>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.043453</v>
+        <v>1.1540765</v>
       </c>
       <c r="H16">
-        <v>4.086906</v>
+        <v>2.308153</v>
       </c>
       <c r="I16">
-        <v>0.2897863251176236</v>
+        <v>0.2430851612630084</v>
       </c>
       <c r="J16">
-        <v>0.2304401073118912</v>
+        <v>0.18555688175448</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>76.27410400000001</v>
+        <v>38.30460633333333</v>
       </c>
       <c r="N16">
-        <v>228.822312</v>
+        <v>114.913819</v>
       </c>
       <c r="O16">
-        <v>0.1523022863612588</v>
+        <v>0.09593976247794071</v>
       </c>
       <c r="P16">
-        <v>0.1783713094021254</v>
+        <v>0.1195743877642841</v>
       </c>
       <c r="Q16">
-        <v>155.862546641112</v>
+        <v>44.20644601105116</v>
       </c>
       <c r="R16">
-        <v>935.1752798466721</v>
+        <v>265.238676066307</v>
       </c>
       <c r="S16">
-        <v>0.04413511987164115</v>
+        <v>0.02332153263348494</v>
       </c>
       <c r="T16">
-        <v>0.04110390367998834</v>
+        <v>0.0221878505312416</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.043453</v>
+        <v>1.1540765</v>
       </c>
       <c r="H17">
-        <v>4.086906</v>
+        <v>2.308153</v>
       </c>
       <c r="I17">
-        <v>0.2897863251176236</v>
+        <v>0.2430851612630084</v>
       </c>
       <c r="J17">
-        <v>0.2304401073118912</v>
+        <v>0.18555688175448</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.0442065</v>
+        <v>8.054906000000001</v>
       </c>
       <c r="N17">
-        <v>12.088413</v>
+        <v>16.109812</v>
       </c>
       <c r="O17">
-        <v>0.01206892537458823</v>
+        <v>0.02017474769737153</v>
       </c>
       <c r="P17">
-        <v>0.009423146005987718</v>
+        <v>0.01676317890799293</v>
       </c>
       <c r="Q17">
-        <v>12.3510519050445</v>
+        <v>9.295977724309001</v>
       </c>
       <c r="R17">
-        <v>49.404207620178</v>
+        <v>37.183910897236</v>
       </c>
       <c r="S17">
-        <v>0.003497409532420762</v>
+        <v>0.004904181797456066</v>
       </c>
       <c r="T17">
-        <v>0.002171470776835429</v>
+        <v>0.003110523206459637</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,14 +1520,14 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
         <v>26</v>
       </c>
-      <c r="D18" t="s">
-        <v>23</v>
-      </c>
       <c r="E18">
         <v>2</v>
       </c>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.043453</v>
+        <v>1.1540765</v>
       </c>
       <c r="H18">
-        <v>4.086906</v>
+        <v>2.308153</v>
       </c>
       <c r="I18">
-        <v>0.2897863251176236</v>
+        <v>0.2430851612630084</v>
       </c>
       <c r="J18">
-        <v>0.2304401073118912</v>
+        <v>0.18555688175448</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>146.059807</v>
+        <v>21.28819633333333</v>
       </c>
       <c r="N18">
-        <v>438.179421</v>
+        <v>63.864589</v>
       </c>
       <c r="O18">
-        <v>0.291648690512106</v>
+        <v>0.05331955332031307</v>
       </c>
       <c r="P18">
-        <v>0.3415691258151223</v>
+        <v>0.06645475014186616</v>
       </c>
       <c r="Q18">
-        <v>298.466350793571</v>
+        <v>24.56820711568616</v>
       </c>
       <c r="R18">
-        <v>1790.798104761426</v>
+        <v>147.409242694117</v>
       </c>
       <c r="S18">
-        <v>0.08451580224887033</v>
+        <v>0.01296119221733988</v>
       </c>
       <c r="T18">
-        <v>0.07871122600726567</v>
+        <v>0.01233113621409777</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,13 +1582,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.043453</v>
+        <v>1.1540765</v>
       </c>
       <c r="H19">
-        <v>4.086906</v>
+        <v>2.308153</v>
       </c>
       <c r="I19">
-        <v>0.2897863251176236</v>
+        <v>0.2430851612630084</v>
       </c>
       <c r="J19">
-        <v>0.2304401073118912</v>
+        <v>0.18555688175448</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,772 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>58.41903299999999</v>
+        <v>102.442257</v>
       </c>
       <c r="N19">
-        <v>175.257099</v>
+        <v>307.326771</v>
       </c>
       <c r="O19">
-        <v>0.1166497123704505</v>
+        <v>0.2565823472706314</v>
       </c>
       <c r="P19">
-        <v>0.1366162152519809</v>
+        <v>0.3197910469401364</v>
       </c>
       <c r="Q19">
-        <v>119.376548240949</v>
+        <v>118.2262014106605</v>
       </c>
       <c r="R19">
-        <v>716.2592894456939</v>
+        <v>709.3572084639629</v>
       </c>
       <c r="S19">
-        <v>0.03380349147386063</v>
+        <v>0.06237136126352266</v>
       </c>
       <c r="T19">
-        <v>0.0314818553032109</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>0.6779453333333333</v>
-      </c>
-      <c r="H20">
-        <v>2.033836</v>
-      </c>
-      <c r="I20">
-        <v>0.09614083944054942</v>
-      </c>
-      <c r="J20">
-        <v>0.1146777993168396</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>213.535248</v>
-      </c>
-      <c r="N20">
-        <v>427.070496</v>
-      </c>
-      <c r="O20">
-        <v>0.4263820193694889</v>
-      </c>
-      <c r="P20">
-        <v>0.3329095091851672</v>
-      </c>
-      <c r="Q20">
-        <v>144.765224883776</v>
-      </c>
-      <c r="R20">
-        <v>868.5913493026561</v>
-      </c>
-      <c r="S20">
-        <v>0.04099272526453927</v>
-      </c>
-      <c r="T20">
-        <v>0.03817732988500416</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0.6779453333333333</v>
-      </c>
-      <c r="H21">
-        <v>2.033836</v>
-      </c>
-      <c r="I21">
-        <v>0.09614083944054942</v>
-      </c>
-      <c r="J21">
-        <v>0.1146777993168396</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>0.4749486666666667</v>
-      </c>
-      <c r="N21">
-        <v>1.424846</v>
-      </c>
-      <c r="O21">
-        <v>0.0009483660121076572</v>
-      </c>
-      <c r="P21">
-        <v>0.001110694339616588</v>
-      </c>
-      <c r="Q21">
-        <v>0.3219892321395555</v>
-      </c>
-      <c r="R21">
-        <v>2.897903089256</v>
-      </c>
-      <c r="S21">
-        <v>9.117670450091642E-05</v>
-      </c>
-      <c r="T21">
-        <v>0.0001273719825809007</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>0.6779453333333333</v>
-      </c>
-      <c r="H22">
-        <v>2.033836</v>
-      </c>
-      <c r="I22">
-        <v>0.09614083944054942</v>
-      </c>
-      <c r="J22">
-        <v>0.1146777993168396</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>76.27410400000001</v>
-      </c>
-      <c r="N22">
-        <v>228.822312</v>
-      </c>
-      <c r="O22">
-        <v>0.1523022863612588</v>
-      </c>
-      <c r="P22">
-        <v>0.1783713094021254</v>
-      </c>
-      <c r="Q22">
-        <v>51.70967286098134</v>
-      </c>
-      <c r="R22">
-        <v>465.387055748832</v>
-      </c>
-      <c r="S22">
-        <v>0.01464246965948636</v>
-      </c>
-      <c r="T22">
-        <v>0.02045522922349885</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>0.6779453333333333</v>
-      </c>
-      <c r="H23">
-        <v>2.033836</v>
-      </c>
-      <c r="I23">
-        <v>0.09614083944054942</v>
-      </c>
-      <c r="J23">
-        <v>0.1146777993168396</v>
-      </c>
-      <c r="K23">
-        <v>2</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>6.0442065</v>
-      </c>
-      <c r="N23">
-        <v>12.088413</v>
-      </c>
-      <c r="O23">
-        <v>0.01206892537458823</v>
-      </c>
-      <c r="P23">
-        <v>0.009423146005987718</v>
-      </c>
-      <c r="Q23">
-        <v>4.097641590377999</v>
-      </c>
-      <c r="R23">
-        <v>24.585849542268</v>
-      </c>
-      <c r="S23">
-        <v>0.00116031661665826</v>
-      </c>
-      <c r="T23">
-        <v>0.001080625646607938</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>0.6779453333333333</v>
-      </c>
-      <c r="H24">
-        <v>2.033836</v>
-      </c>
-      <c r="I24">
-        <v>0.09614083944054942</v>
-      </c>
-      <c r="J24">
-        <v>0.1146777993168396</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>146.059807</v>
-      </c>
-      <c r="N24">
-        <v>438.179421</v>
-      </c>
-      <c r="O24">
-        <v>0.291648690512106</v>
-      </c>
-      <c r="P24">
-        <v>0.3415691258151223</v>
-      </c>
-      <c r="Q24">
-        <v>99.02056454321733</v>
-      </c>
-      <c r="R24">
-        <v>891.185080888956</v>
-      </c>
-      <c r="S24">
-        <v>0.02803934992757087</v>
-      </c>
-      <c r="T24">
-        <v>0.03917039566305493</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>0.6779453333333333</v>
-      </c>
-      <c r="H25">
-        <v>2.033836</v>
-      </c>
-      <c r="I25">
-        <v>0.09614083944054942</v>
-      </c>
-      <c r="J25">
-        <v>0.1146777993168396</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>58.41903299999999</v>
-      </c>
-      <c r="N25">
-        <v>175.257099</v>
-      </c>
-      <c r="O25">
-        <v>0.1166497123704505</v>
-      </c>
-      <c r="P25">
-        <v>0.1366162152519809</v>
-      </c>
-      <c r="Q25">
-        <v>39.604910800196</v>
-      </c>
-      <c r="R25">
-        <v>356.444197201764</v>
-      </c>
-      <c r="S25">
-        <v>0.01121480126779375</v>
-      </c>
-      <c r="T25">
-        <v>0.01566684691609282</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-      <c r="F26">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G26">
-        <v>0.01028933333333333</v>
-      </c>
-      <c r="H26">
-        <v>0.030868</v>
-      </c>
-      <c r="I26">
-        <v>0.001459151786009727</v>
-      </c>
-      <c r="J26">
-        <v>0.00174049151913537</v>
-      </c>
-      <c r="K26">
-        <v>2</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>213.535248</v>
-      </c>
-      <c r="N26">
-        <v>427.070496</v>
-      </c>
-      <c r="O26">
-        <v>0.4263820193694889</v>
-      </c>
-      <c r="P26">
-        <v>0.3329095091851672</v>
-      </c>
-      <c r="Q26">
-        <v>2.197135345088001</v>
-      </c>
-      <c r="R26">
-        <v>13.182812070528</v>
-      </c>
-      <c r="S26">
-        <v>0.000622156085085424</v>
-      </c>
-      <c r="T26">
-        <v>0.0005794261773763021</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27">
-        <v>2</v>
-      </c>
-      <c r="F27">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G27">
-        <v>0.01028933333333333</v>
-      </c>
-      <c r="H27">
-        <v>0.030868</v>
-      </c>
-      <c r="I27">
-        <v>0.001459151786009727</v>
-      </c>
-      <c r="J27">
-        <v>0.00174049151913537</v>
-      </c>
-      <c r="K27">
-        <v>3</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>0.4749486666666667</v>
-      </c>
-      <c r="N27">
-        <v>1.424846</v>
-      </c>
-      <c r="O27">
-        <v>0.0009483660121076572</v>
-      </c>
-      <c r="P27">
-        <v>0.001110694339616588</v>
-      </c>
-      <c r="Q27">
-        <v>0.004886905147555556</v>
-      </c>
-      <c r="R27">
-        <v>0.04398214632800001</v>
-      </c>
-      <c r="S27">
-        <v>1.383809960357811E-06</v>
-      </c>
-      <c r="T27">
-        <v>1.933154078454332E-06</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" t="s">
-        <v>27</v>
-      </c>
-      <c r="E28">
-        <v>2</v>
-      </c>
-      <c r="F28">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G28">
-        <v>0.01028933333333333</v>
-      </c>
-      <c r="H28">
-        <v>0.030868</v>
-      </c>
-      <c r="I28">
-        <v>0.001459151786009727</v>
-      </c>
-      <c r="J28">
-        <v>0.00174049151913537</v>
-      </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>76.27410400000001</v>
-      </c>
-      <c r="N28">
-        <v>228.822312</v>
-      </c>
-      <c r="O28">
-        <v>0.1523022863612588</v>
-      </c>
-      <c r="P28">
-        <v>0.1783713094021254</v>
-      </c>
-      <c r="Q28">
-        <v>0.7848096807573335</v>
-      </c>
-      <c r="R28">
-        <v>7.063287126816001</v>
-      </c>
-      <c r="S28">
-        <v>0.0002222321531573957</v>
-      </c>
-      <c r="T28">
-        <v>0.0003104537512714705</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29">
-        <v>2</v>
-      </c>
-      <c r="F29">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G29">
-        <v>0.01028933333333333</v>
-      </c>
-      <c r="H29">
-        <v>0.030868</v>
-      </c>
-      <c r="I29">
-        <v>0.001459151786009727</v>
-      </c>
-      <c r="J29">
-        <v>0.00174049151913537</v>
-      </c>
-      <c r="K29">
-        <v>2</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>6.0442065</v>
-      </c>
-      <c r="N29">
-        <v>12.088413</v>
-      </c>
-      <c r="O29">
-        <v>0.01206892537458823</v>
-      </c>
-      <c r="P29">
-        <v>0.009423146005987718</v>
-      </c>
-      <c r="Q29">
-        <v>0.062190855414</v>
-      </c>
-      <c r="R29">
-        <v>0.373145132484</v>
-      </c>
-      <c r="S29">
-        <v>1.761039401554853E-05</v>
-      </c>
-      <c r="T29">
-        <v>1.640090570699596E-05</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30">
-        <v>2</v>
-      </c>
-      <c r="F30">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G30">
-        <v>0.01028933333333333</v>
-      </c>
-      <c r="H30">
-        <v>0.030868</v>
-      </c>
-      <c r="I30">
-        <v>0.001459151786009727</v>
-      </c>
-      <c r="J30">
-        <v>0.00174049151913537</v>
-      </c>
-      <c r="K30">
-        <v>3</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>146.059807</v>
-      </c>
-      <c r="N30">
-        <v>438.179421</v>
-      </c>
-      <c r="O30">
-        <v>0.291648690512106</v>
-      </c>
-      <c r="P30">
-        <v>0.3415691258151223</v>
-      </c>
-      <c r="Q30">
-        <v>1.502858040825334</v>
-      </c>
-      <c r="R30">
-        <v>13.525722367428</v>
-      </c>
-      <c r="S30">
-        <v>0.0004255597076481377</v>
-      </c>
-      <c r="T30">
-        <v>0.0005944981666797026</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31">
-        <v>2</v>
-      </c>
-      <c r="F31">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G31">
-        <v>0.01028933333333333</v>
-      </c>
-      <c r="H31">
-        <v>0.030868</v>
-      </c>
-      <c r="I31">
-        <v>0.001459151786009727</v>
-      </c>
-      <c r="J31">
-        <v>0.00174049151913537</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>58.41903299999999</v>
-      </c>
-      <c r="N31">
-        <v>175.257099</v>
-      </c>
-      <c r="O31">
-        <v>0.1166497123704505</v>
-      </c>
-      <c r="P31">
-        <v>0.1366162152519809</v>
-      </c>
-      <c r="Q31">
-        <v>0.6010929035479999</v>
-      </c>
-      <c r="R31">
-        <v>5.409836131932</v>
-      </c>
-      <c r="S31">
-        <v>0.0001702096361428638</v>
-      </c>
-      <c r="T31">
-        <v>0.0002377793640224449</v>
+        <v>0.05933942948321225</v>
       </c>
     </row>
   </sheetData>
